--- a/xlsx/经济合作与发展组织_intext.xlsx
+++ b/xlsx/经济合作与发展组织_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="167">
   <si>
     <t>经济合作与发展组织</t>
   </si>
@@ -29,7 +29,7 @@
     <t>经济合作组织</t>
   </si>
   <si>
-    <t>政策_政策_美國_经济合作与发展组织</t>
+    <t>政策_政策_美国_经济合作与发展组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E6%B2%99%E5%B0%BC%E4%BA%9A</t>
@@ -113,13 +113,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%88%E7%89%99%E5%88%A9</t>
@@ -131,13 +131,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>愛爾蘭共和國</t>
+    <t>爱尔兰共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%A3%AE%E5%A0%A1</t>
@@ -179,13 +179,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E6%B4%9B%E7%B6%AD%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>斯洛維尼亞</t>
+    <t>斯洛维尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -257,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Jos%C3%A9_%C3%81ngel_Gurr%C3%ADa</t>
@@ -287,9 +287,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
   </si>
   <si>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%94%B6%E5%85%A5%E7%B6%93%E6%BF%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>高收入經濟體</t>
+    <t>高收入经济体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BE%B7</t>
@@ -341,13 +338,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>國家</t>
+    <t>国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲聯盟</t>
+    <t>欧洲联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E7%9B%9F%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -359,25 +356,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%81%AF%E9%82%A6</t>
   </si>
   <si>
-    <t>俄羅斯聯邦</t>
+    <t>俄罗斯联邦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E7%99%BC%E4%B8%AD%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>開發中國家</t>
+    <t>开发中国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E5%B1%95</t>
   </si>
   <si>
-    <t>發展</t>
+    <t>发展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
@@ -401,7 +398,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -419,27 +416,24 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E5%8F%B0%E5%8C%97</t>
   </si>
   <si>
-    <t>中華台北</t>
+    <t>中华台北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F</t>
   </si>
   <si>
-    <t>欧洲联盟</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
   </si>
   <si>
@@ -473,13 +467,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%88%B0%E7%95%A5%E7%B6%93%E6%BF%9F%E5%A4%A5%E4%BC%B4%E9%97%9C%E4%BF%82%E5%8D%94%E8%AD%B0</t>
   </si>
   <si>
-    <t>泛太平洋戰略經濟夥伴關係協議</t>
+    <t>泛太平洋战略经济夥伴关系协议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2%E5%9B%9B%E5%B0%8F%E9%BE%8D</t>
   </si>
   <si>
-    <t>亞洲四小龍</t>
+    <t>亚洲四小龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:OECD</t>
@@ -491,33 +485,18 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%90%88%E4%BD%9C%E8%88%87%E7%99%BC%E5%B1%95%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>經濟合作與發展組織</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%97%B6</t>
   </si>
   <si>
-    <t>比利时</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E6%B2%99%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>愛沙尼亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E8%98%AD</t>
   </si>
   <si>
-    <t>芬蘭</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
@@ -527,19 +506,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%A7%E6%A3%AE%E5%A0%A1</t>
   </si>
   <si>
-    <t>盧森堡</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%80%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>哥倫比亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E8%87%BA%E5%8C%97</t>
-  </si>
-  <si>
-    <t>中華臺北</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -2192,7 +2162,7 @@
         <v>89</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="G45" t="n">
         <v>2</v>
@@ -2218,10 +2188,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2247,10 +2217,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>5</v>
@@ -2276,10 +2246,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2305,10 +2275,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>3</v>
@@ -2334,10 +2304,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>3</v>
@@ -2363,10 +2333,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>3</v>
@@ -2392,10 +2362,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2421,10 +2391,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2450,10 +2420,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -2479,10 +2449,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2508,10 +2478,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2537,10 +2507,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -2566,10 +2536,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
@@ -2595,10 +2565,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2624,10 +2594,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2653,10 +2623,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>4</v>
@@ -2682,10 +2652,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>5</v>
@@ -2711,10 +2681,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>5</v>
@@ -2740,10 +2710,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>3</v>
@@ -2769,10 +2739,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>3</v>
@@ -2798,10 +2768,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -2827,10 +2797,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2856,10 +2826,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2885,10 +2855,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2914,10 +2884,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -2943,10 +2913,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -2972,10 +2942,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>3</v>
@@ -3001,10 +2971,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3030,10 +3000,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3059,10 +3029,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3088,10 +3058,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3117,10 +3087,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3146,10 +3116,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>5</v>
@@ -3175,10 +3145,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3204,10 +3174,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3233,10 +3203,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>28</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3262,10 +3232,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>30</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3291,10 +3261,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3320,10 +3290,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3378,10 +3348,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>50</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3436,10 +3406,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3465,10 +3435,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>128</v>
+      </c>
+      <c r="F89" t="s">
         <v>129</v>
-      </c>
-      <c r="F89" t="s">
-        <v>130</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3494,10 +3464,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3523,10 +3493,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" t="s">
         <v>111</v>
-      </c>
-      <c r="F91" t="s">
-        <v>112</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3552,10 +3522,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -3581,10 +3551,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F93" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
